--- a/biology/Écologie/Ourlet_forestier/Ourlet_forestier.xlsx
+++ b/biology/Écologie/Ourlet_forestier/Ourlet_forestier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ourlet est un terme technique de phytosociologie désignant une végétation herbacée vivace incluant parfois quelques sous-arbrisseaux[1] et rencontrée en situation d'écotone.
-En général, on parle d'ourlet forestier lorsque celui-ci compose la zone de transition depuis un milieu ouvert vers la forêt, mais la végétation d'ourlet peut également être rencontrée le long des haies, ou de formations arbustives non ou pré-forestières (fruticée)[2]. Il fait partie de la « trame arborée », au sein de la trame verte et bleue[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ourlet est un terme technique de phytosociologie désignant une végétation herbacée vivace incluant parfois quelques sous-arbrisseaux et rencontrée en situation d'écotone.
+En général, on parle d'ourlet forestier lorsque celui-ci compose la zone de transition depuis un milieu ouvert vers la forêt, mais la végétation d'ourlet peut également être rencontrée le long des haies, ou de formations arbustives non ou pré-forestières (fruticée). Il fait partie de la « trame arborée », au sein de la trame verte et bleue.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Attention de ne pas confondre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'ourlet : terme désignant un type de végétation, principalement composée de plantes herbacées vivaces,
 Le manteau forestier : terme désignant un type de végétation, principalement composée de plantes arbustives,
@@ -544,7 +558,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il forme une limite semi-perméable entre deux milieux (dits ouverts et fermés). C'est un écotone qui a une grande importance écologique notamment pour assurer la résilience de la forêt face aux aléas climatiques[réf. nécessaire].
 L'ourlet présente des conditions microclimatiques et écologiques tout à fait particulières.
@@ -578,7 +594,9 @@
           <t>Équilibres dynamiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauf quand il est limité par un milieu inhospitalier pour la forêt (trait de côte par exemple), l'ourlet évolue spontanément dans le temps et l'espace en fonction du cycle sylvogénétique et d'aléas de type incendies, glissements de terrain... 
 </t>
@@ -609,7 +627,9 @@
           <t>Ourlet et risques d'incendies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tant que l'eau est disponible, et si l'ourlet est bien exposé à la lumière, la végétation y croît plus vite et produit plus de biomasse  (à conditions égales de sol, pente, altitude, latitude et exposition). 
 Si l'eau manque (sécheresse), la lisière devient vulnérable à la déshydratation (évapotranspiration maximale + exposition au vent et au soleil). Un ourlet épais, incluant des lianes (lierre, houblon et nombreuses lianes et épiphytes en zone tropicale). S'il a été drainé comme c'est parfois le cas en zone de sylviculture ou d'agriculture, il peut alors devenir un couloir de propagation rapide du feu, y compris éventuellement - et paradoxalement - en bordure d'allées coupe-feu mal conçues ou mal orientées. 
@@ -642,7 +662,9 @@
           <t>Ourlets et paysage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ourlets forestiers sont des éléments très importants des paysages boisés. Ils forment des transitions naturelles et adoucies entre forêt et milieu adjacent. Ils sont très denses dans le cas des ripisylves.
 </t>
